--- a/KjContacts.xlsx
+++ b/KjContacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shelbin\source\repos\Muti-Thread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B39F6D-6412-4038-91A7-DA6155EFB9A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CD54AA-2A28-4D5D-A6A8-6B2329B8C453}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{6E1025B7-BC90-4D18-A614-E1F08BCE80D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="416">
   <si>
     <t>SNN Builders</t>
   </si>
@@ -646,15 +646,6 @@
     <t>Emails</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Phone No</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>Org Name</t>
   </si>
   <si>
@@ -664,18 +655,12 @@
     <t>info@npskrm.com</t>
   </si>
   <si>
-    <t>Koramangala</t>
-  </si>
-  <si>
     <t>National Academy for Learning</t>
   </si>
   <si>
     <t>info@nafl.in</t>
   </si>
   <si>
-    <t>Basaveshwarnagar</t>
-  </si>
-  <si>
     <t>info@agasthyavidyanikethan.com</t>
   </si>
   <si>
@@ -1193,6 +1178,111 @@
   </si>
   <si>
     <t>PES University</t>
+  </si>
+  <si>
+    <t>IsPurchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candor International School </t>
+  </si>
+  <si>
+    <t>enquire@candorschool.com;admissions@candorschool.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBR Business School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treamis World School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podar International School </t>
+  </si>
+  <si>
+    <t>vibgyorhigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIM Business School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorsfort International School </t>
+  </si>
+  <si>
+    <t>Narayana Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Bear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welingkar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redbridge International Academy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan International </t>
+  </si>
+  <si>
+    <t>TREEHOUSE EDUCATION</t>
+  </si>
+  <si>
+    <t>St.Francis P.U. College</t>
+  </si>
+  <si>
+    <t>ST. FRANCIS HIGH SCHOOL</t>
+  </si>
+  <si>
+    <t>Jyoti Nivas Pre – University College</t>
+  </si>
+  <si>
+    <t>info@isbr.in</t>
+  </si>
+  <si>
+    <t>purchasing@treamis.org</t>
+  </si>
+  <si>
+    <t>p.patil@podar.org</t>
+  </si>
+  <si>
+    <t>helpdesk.vh15102@vibgyorhigh.com;helpdesk.vh15103@vibgyorhigh.com;helpdesk.vh15107@vibgyorhigh.com;helpdesk.vh15111@vibgyorhigh.com;helpdesk.vh15112@vibgyorhigh.com;helpdesk.vh15120@vibgyorhigh.com;helpdesk.vh15116@vibgyorhigh.com;helpdesk.vh15121@vibgyorhigh.com;helpdesk.vh15130@vibgyorhigh.com;helpdesk.vh15301@vibgyorhigh.com;helpdesk.vh15139@vibgyorhigh.com</t>
+  </si>
+  <si>
+    <t>pgdm@ifimbschool.com</t>
+  </si>
+  <si>
+    <t>info@sorsfort.com</t>
+  </si>
+  <si>
+    <t>info@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>sales@maplebear.in</t>
+  </si>
+  <si>
+    <t>vijay.chengalrayan@welingkar.org</t>
+  </si>
+  <si>
+    <t>info@rbia.in</t>
+  </si>
+  <si>
+    <t>principal.amcschool@gmail.com</t>
+  </si>
+  <si>
+    <t>contact@treehouseplaygroup.net</t>
+  </si>
+  <si>
+    <t>admission2.oisjp@orchids.edu.in</t>
+  </si>
+  <si>
+    <t>stfrancispucollege@gmail.com</t>
+  </si>
+  <si>
+    <t>franciskor.sslc@rediffmail.com</t>
+  </si>
+  <si>
+    <t>info@jnpuc.org</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1289,6 +1379,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2553,775 +2644,1238 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF21B3FF-CB7B-43A7-A0B3-8BDEBB4511E9}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>202</v>
       </c>
       <c r="C1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>216</v>
       </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>337</v>
+      </c>
+      <c r="B71" t="s">
+        <v>338</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>341</v>
+      </c>
+      <c r="B73" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>353</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>373</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" t="s">
+        <v>376</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>377</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>386</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>392</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>393</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>394</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>395</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>396</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>259</v>
-      </c>
-      <c r="B28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>284</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>310</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>315</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>316</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>322</v>
-      </c>
-      <c r="B61" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>326</v>
-      </c>
-      <c r="B63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>328</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>330</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>334</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>337</v>
-      </c>
-      <c r="B68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>338</v>
-      </c>
-      <c r="B69" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>344</v>
-      </c>
-      <c r="B72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>348</v>
-      </c>
-      <c r="B74" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>351</v>
-      </c>
-      <c r="B75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>352</v>
-      </c>
-      <c r="B76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>354</v>
-      </c>
-      <c r="B77" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>356</v>
-      </c>
-      <c r="B78" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>358</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>362</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>366</v>
-      </c>
-      <c r="B83" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>369</v>
-      </c>
-      <c r="B84" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>371</v>
-      </c>
-      <c r="B85" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>372</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>374</v>
-      </c>
-      <c r="B87" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>376</v>
-      </c>
-      <c r="B88" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>378</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>354</v>
-      </c>
-      <c r="B90" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>380</v>
-      </c>
-      <c r="B91" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>382</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>385</v>
-      </c>
-      <c r="B93" t="s">
-        <v>384</v>
+      <c r="B108" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>397</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>399</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3364,8 +3918,26 @@
     <hyperlink ref="B86" r:id="rId36" xr:uid="{CC9D86A0-49AC-4FAF-A281-E854869113EC}"/>
     <hyperlink ref="B89" r:id="rId37" xr:uid="{12CFAE8E-AC0B-4BB4-B285-291619403814}"/>
     <hyperlink ref="B92" r:id="rId38" xr:uid="{05546795-6A73-44BB-8AA0-A9E0916E75E7}"/>
+    <hyperlink ref="B94" r:id="rId39" xr:uid="{6D522FF5-A92B-48E5-B9B1-597393E9BEB7}"/>
+    <hyperlink ref="B95" r:id="rId40" xr:uid="{60D97E97-6168-4847-AA9D-1D5BCC5B248E}"/>
+    <hyperlink ref="B96" r:id="rId41" xr:uid="{34741AE6-FE2D-47F9-B765-157C59ED29F1}"/>
+    <hyperlink ref="B97" r:id="rId42" xr:uid="{ADBA5F6C-59F1-45C5-B940-C8087BFB9777}"/>
+    <hyperlink ref="B98" r:id="rId43" display="helpdesk.vh15102@vibgyorhigh.com;helpdesk.vh15103@vibgyorhigh.com;helpdesk.vh15107@vibgyorhigh.com;helpdesk.vh15111@vibgyorhigh.com;helpdesk.vh15112@vibgyorhigh.com;helpdesk.vh15120@vibgyorhigh.com;helpdesk.vh15116@vibgyorhigh.com;helpdesk.vh15121@vibgyorhigh.com;helpdesk.vh15130@vibgyorhigh.com;helpdesk.vh15301@vibgyorhigh.com;helpdesk.vh15139@vibgyorhigh.com" xr:uid="{55528E2B-DFA2-4042-B6CF-8DC4831F84E4}"/>
+    <hyperlink ref="B99" r:id="rId44" xr:uid="{F3117DF8-6869-4365-98D9-7CB7672F2853}"/>
+    <hyperlink ref="B100" r:id="rId45" xr:uid="{58048A48-0ACB-4B59-B917-F41105031A58}"/>
+    <hyperlink ref="B101" r:id="rId46" xr:uid="{CEED252B-6741-46A2-8F4E-94AE08D51680}"/>
+    <hyperlink ref="B102" r:id="rId47" xr:uid="{2E7A313D-3060-465D-88F5-E65E6464E0EE}"/>
+    <hyperlink ref="B103" r:id="rId48" xr:uid="{7C05846E-1390-48CE-B8D4-BD86BF83A1A0}"/>
+    <hyperlink ref="B104" r:id="rId49" xr:uid="{6F917A36-2EC3-46C2-9FDE-AD4A39241A15}"/>
+    <hyperlink ref="B105" r:id="rId50" xr:uid="{FE8AE9DD-F708-495F-B145-E99BBDEC4941}"/>
+    <hyperlink ref="B106" r:id="rId51" xr:uid="{2E54BFAC-AD28-440F-83AA-F73305B8F98B}"/>
+    <hyperlink ref="B107" r:id="rId52" xr:uid="{858AD16F-FB94-4BD2-B138-3A81C9491354}"/>
+    <hyperlink ref="B108" r:id="rId53" xr:uid="{082C3A00-85B1-49CD-B4C7-5180CB822E12}"/>
+    <hyperlink ref="B109" r:id="rId54" xr:uid="{336F7D52-7E4F-4152-A7C9-8C77B4CB6434}"/>
+    <hyperlink ref="B110" r:id="rId55" xr:uid="{9773D3C2-62FC-49A1-96AA-B8D15CD8E718}"/>
+    <hyperlink ref="B111" r:id="rId56" xr:uid="{AF57DBC6-0989-430A-8EA7-F2853FEBBFB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>